--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3349</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3369</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3349"/>
+  <dimension ref="A1:H3369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -92860,6 +92860,566 @@
         <v>0</v>
       </c>
       <c r="H3349" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3350">
+      <c r="A3350" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3350" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3350" s="0">
+        <v>40596</v>
+      </c>
+      <c r="D3350" s="0">
+        <v>5.33245063384916E-02</v>
+      </c>
+      <c r="E3350" s="0">
+        <v>73</v>
+      </c>
+      <c r="F3350" s="0">
+        <v>7.31462925851703E-02</v>
+      </c>
+      <c r="G3350" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3350" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3351">
+      <c r="A3351" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3351" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3351" s="0">
+        <v>96168</v>
+      </c>
+      <c r="D3351" s="0">
+        <v>0.126320601181399</v>
+      </c>
+      <c r="E3351" s="0">
+        <v>159</v>
+      </c>
+      <c r="F3351" s="0">
+        <v>0.159318637274549</v>
+      </c>
+      <c r="G3351" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3351" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3352">
+      <c r="A3352" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3352" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3352" s="0">
+        <v>137842</v>
+      </c>
+      <c r="D3352" s="0">
+        <v>0.181061104609084</v>
+      </c>
+      <c r="E3352" s="0">
+        <v>146</v>
+      </c>
+      <c r="F3352" s="0">
+        <v>0.146292585170341</v>
+      </c>
+      <c r="G3352" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3352" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3353">
+      <c r="A3353" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3353" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3353" s="0">
+        <v>117988</v>
+      </c>
+      <c r="D3353" s="0">
+        <v>0.154982063599023</v>
+      </c>
+      <c r="E3353" s="0">
+        <v>144</v>
+      </c>
+      <c r="F3353" s="0">
+        <v>0.144288577154309</v>
+      </c>
+      <c r="G3353" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3353" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3354">
+      <c r="A3354" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3354" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3354" s="0">
+        <v>113417</v>
+      </c>
+      <c r="D3354" s="0">
+        <v>0.148977868149392</v>
+      </c>
+      <c r="E3354" s="0">
+        <v>168</v>
+      </c>
+      <c r="F3354" s="0">
+        <v>0.168336673346693</v>
+      </c>
+      <c r="G3354" s="0">
+        <v>346</v>
+      </c>
+      <c r="H3354" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3355">
+      <c r="A3355" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3355" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3355" s="0">
+        <v>106943</v>
+      </c>
+      <c r="D3355" s="0">
+        <v>0.140474004368837</v>
+      </c>
+      <c r="E3355" s="0">
+        <v>149</v>
+      </c>
+      <c r="F3355" s="0">
+        <v>0.149298597194389</v>
+      </c>
+      <c r="G3355" s="0">
+        <v>915</v>
+      </c>
+      <c r="H3355" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3356">
+      <c r="A3356" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3356" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3356" s="0">
+        <v>77314</v>
+      </c>
+      <c r="D3356" s="0">
+        <v>0.101555101070404</v>
+      </c>
+      <c r="E3356" s="0">
+        <v>94</v>
+      </c>
+      <c r="F3356" s="0">
+        <v>0.094188376753507</v>
+      </c>
+      <c r="G3356" s="0">
+        <v>2011</v>
+      </c>
+      <c r="H3356" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3357">
+      <c r="A3357" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3357" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3357" s="0">
+        <v>45954</v>
+      </c>
+      <c r="D3357" s="0">
+        <v>6.03624584756883E-02</v>
+      </c>
+      <c r="E3357" s="0">
+        <v>42</v>
+      </c>
+      <c r="F3357" s="0">
+        <v>4.20841683366733E-02</v>
+      </c>
+      <c r="G3357" s="0">
+        <v>3380</v>
+      </c>
+      <c r="H3357" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3358">
+      <c r="A3358" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3358" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3358" s="0">
+        <v>24026</v>
+      </c>
+      <c r="D3358" s="0">
+        <v>3.15591336409646E-02</v>
+      </c>
+      <c r="E3358" s="0">
+        <v>24</v>
+      </c>
+      <c r="F3358" s="0">
+        <v>2.40480961923848E-02</v>
+      </c>
+      <c r="G3358" s="0">
+        <v>4241</v>
+      </c>
+      <c r="H3358" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3359">
+      <c r="A3359" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3359" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3359" s="0">
+        <v>1053</v>
+      </c>
+      <c r="D3359" s="0">
+        <v>1.38315856671671E-03</v>
+      </c>
+      <c r="E3359" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F3359" s="0">
+        <v>-1.00200400801603E-03</v>
+      </c>
+      <c r="G3359" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3359" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3360">
+      <c r="A3360" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3360" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3360" s="0">
+        <v>40669</v>
+      </c>
+      <c r="D3360" s="0">
+        <v>5.33242949468514E-02</v>
+      </c>
+      <c r="E3360" s="0">
+        <v>73</v>
+      </c>
+      <c r="F3360" s="0">
+        <v>5.32069970845481E-02</v>
+      </c>
+      <c r="G3360" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3360" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3361">
+      <c r="A3361" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3361" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3361" s="0">
+        <v>96383</v>
+      </c>
+      <c r="D3361" s="0">
+        <v>0.126375261743893</v>
+      </c>
+      <c r="E3361" s="0">
+        <v>215</v>
+      </c>
+      <c r="F3361" s="0">
+        <v>0.156705539358601</v>
+      </c>
+      <c r="G3361" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3361" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3362">
+      <c r="A3362" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3362" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3362" s="0">
+        <v>138036</v>
+      </c>
+      <c r="D3362" s="0">
+        <v>0.180989755766888</v>
+      </c>
+      <c r="E3362" s="0">
+        <v>194</v>
+      </c>
+      <c r="F3362" s="0">
+        <v>0.141399416909621</v>
+      </c>
+      <c r="G3362" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3362" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3363">
+      <c r="A3363" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3363" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3363" s="0">
+        <v>118184</v>
+      </c>
+      <c r="D3363" s="0">
+        <v>0.154960251641267</v>
+      </c>
+      <c r="E3363" s="0">
+        <v>196</v>
+      </c>
+      <c r="F3363" s="0">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="G3363" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3363" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3364">
+      <c r="A3364" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3364" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3364" s="0">
+        <v>113616</v>
+      </c>
+      <c r="D3364" s="0">
+        <v>0.148970790889411</v>
+      </c>
+      <c r="E3364" s="0">
+        <v>199</v>
+      </c>
+      <c r="F3364" s="0">
+        <v>0.145043731778426</v>
+      </c>
+      <c r="G3364" s="0">
+        <v>346</v>
+      </c>
+      <c r="H3364" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3365">
+      <c r="A3365" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3365" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3365" s="0">
+        <v>107155</v>
+      </c>
+      <c r="D3365" s="0">
+        <v>0.140499270329486</v>
+      </c>
+      <c r="E3365" s="0">
+        <v>212</v>
+      </c>
+      <c r="F3365" s="0">
+        <v>0.154518950437318</v>
+      </c>
+      <c r="G3365" s="0">
+        <v>915</v>
+      </c>
+      <c r="H3365" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3366">
+      <c r="A3366" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3366" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3366" s="0">
+        <v>77470</v>
+      </c>
+      <c r="D3366" s="0">
+        <v>0.101576953687885</v>
+      </c>
+      <c r="E3366" s="0">
+        <v>156</v>
+      </c>
+      <c r="F3366" s="0">
+        <v>0.113702623906706</v>
+      </c>
+      <c r="G3366" s="0">
+        <v>2013</v>
+      </c>
+      <c r="H3366" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3367">
+      <c r="A3367" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3367" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3367" s="0">
+        <v>46031</v>
+      </c>
+      <c r="D3367" s="0">
+        <v>6.03548309694981E-02</v>
+      </c>
+      <c r="E3367" s="0">
+        <v>77</v>
+      </c>
+      <c r="F3367" s="0">
+        <v>5.61224489795918E-02</v>
+      </c>
+      <c r="G3367" s="0">
+        <v>3382</v>
+      </c>
+      <c r="H3367" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3368">
+      <c r="A3368" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3368" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3368" s="0">
+        <v>24078</v>
+      </c>
+      <c r="D3368" s="0">
+        <v>3.15705420278415E-02</v>
+      </c>
+      <c r="E3368" s="0">
+        <v>52</v>
+      </c>
+      <c r="F3368" s="0">
+        <v>3.79008746355685E-02</v>
+      </c>
+      <c r="G3368" s="0">
+        <v>4244</v>
+      </c>
+      <c r="H3368" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3369">
+      <c r="A3369" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B3369" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3369" s="0">
+        <v>1051</v>
+      </c>
+      <c r="D3369" s="0">
+        <v>1.37804799697905E-03</v>
+      </c>
+      <c r="E3369" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F3369" s="0">
+        <v>-1.45772594752187E-03</v>
+      </c>
+      <c r="G3369" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3369" s="0">
         <v>0</v>
       </c>
     </row>
@@ -93292,11 +93852,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3061</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3084</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3061</Url>
-      <Description>HJYU5V3E37X6-122305290-3061</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3084</Url>
+      <Description>HJYU5V3E37X6-122305290-3084</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -93319,17 +93879,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DE3898-9D65-48F8-8773-F2C3103A102A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533014A7-079F-4F5B-9A73-9C20599A4D6E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A10A35-6E5B-4DE4-A87E-A629643E8168}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0257C500-6DF8-4F75-9992-FC15FEDDFEC1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76896AE3-6069-468E-A33E-C23575429195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772964B-5B7D-4010-960B-0CBE8D9F317B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60E9722-085C-4F52-AE2E-FF360B653A39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC2E57D-FE9B-4A22-B2FB-6F47B3EC7915}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3349</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3359</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3349"/>
+  <dimension ref="A1:H3359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -92860,6 +92860,286 @@
         <v>0</v>
       </c>
       <c r="H3349" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3350">
+      <c r="A3350" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3350" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3350" s="0">
+        <v>40596</v>
+      </c>
+      <c r="D3350" s="0">
+        <v>5.33245063384916E-02</v>
+      </c>
+      <c r="E3350" s="0">
+        <v>73</v>
+      </c>
+      <c r="F3350" s="0">
+        <v>7.31462925851703E-02</v>
+      </c>
+      <c r="G3350" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3350" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3351">
+      <c r="A3351" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3351" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3351" s="0">
+        <v>96168</v>
+      </c>
+      <c r="D3351" s="0">
+        <v>0.126320601181399</v>
+      </c>
+      <c r="E3351" s="0">
+        <v>159</v>
+      </c>
+      <c r="F3351" s="0">
+        <v>0.159318637274549</v>
+      </c>
+      <c r="G3351" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3351" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3352">
+      <c r="A3352" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3352" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3352" s="0">
+        <v>137842</v>
+      </c>
+      <c r="D3352" s="0">
+        <v>0.181061104609084</v>
+      </c>
+      <c r="E3352" s="0">
+        <v>146</v>
+      </c>
+      <c r="F3352" s="0">
+        <v>0.146292585170341</v>
+      </c>
+      <c r="G3352" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3352" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3353">
+      <c r="A3353" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3353" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3353" s="0">
+        <v>117988</v>
+      </c>
+      <c r="D3353" s="0">
+        <v>0.154982063599023</v>
+      </c>
+      <c r="E3353" s="0">
+        <v>144</v>
+      </c>
+      <c r="F3353" s="0">
+        <v>0.144288577154309</v>
+      </c>
+      <c r="G3353" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3353" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3354">
+      <c r="A3354" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3354" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3354" s="0">
+        <v>113417</v>
+      </c>
+      <c r="D3354" s="0">
+        <v>0.148977868149392</v>
+      </c>
+      <c r="E3354" s="0">
+        <v>168</v>
+      </c>
+      <c r="F3354" s="0">
+        <v>0.168336673346693</v>
+      </c>
+      <c r="G3354" s="0">
+        <v>346</v>
+      </c>
+      <c r="H3354" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3355">
+      <c r="A3355" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3355" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3355" s="0">
+        <v>106943</v>
+      </c>
+      <c r="D3355" s="0">
+        <v>0.140474004368837</v>
+      </c>
+      <c r="E3355" s="0">
+        <v>149</v>
+      </c>
+      <c r="F3355" s="0">
+        <v>0.149298597194389</v>
+      </c>
+      <c r="G3355" s="0">
+        <v>915</v>
+      </c>
+      <c r="H3355" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3356">
+      <c r="A3356" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3356" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3356" s="0">
+        <v>77314</v>
+      </c>
+      <c r="D3356" s="0">
+        <v>0.101555101070404</v>
+      </c>
+      <c r="E3356" s="0">
+        <v>94</v>
+      </c>
+      <c r="F3356" s="0">
+        <v>0.094188376753507</v>
+      </c>
+      <c r="G3356" s="0">
+        <v>2011</v>
+      </c>
+      <c r="H3356" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3357">
+      <c r="A3357" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3357" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3357" s="0">
+        <v>45954</v>
+      </c>
+      <c r="D3357" s="0">
+        <v>6.03624584756883E-02</v>
+      </c>
+      <c r="E3357" s="0">
+        <v>42</v>
+      </c>
+      <c r="F3357" s="0">
+        <v>4.20841683366733E-02</v>
+      </c>
+      <c r="G3357" s="0">
+        <v>3380</v>
+      </c>
+      <c r="H3357" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3358">
+      <c r="A3358" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3358" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3358" s="0">
+        <v>24026</v>
+      </c>
+      <c r="D3358" s="0">
+        <v>3.15591336409646E-02</v>
+      </c>
+      <c r="E3358" s="0">
+        <v>24</v>
+      </c>
+      <c r="F3358" s="0">
+        <v>2.40480961923848E-02</v>
+      </c>
+      <c r="G3358" s="0">
+        <v>4241</v>
+      </c>
+      <c r="H3358" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3359">
+      <c r="A3359" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B3359" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3359" s="0">
+        <v>1053</v>
+      </c>
+      <c r="D3359" s="0">
+        <v>1.38315856671671E-03</v>
+      </c>
+      <c r="E3359" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F3359" s="0">
+        <v>-1.00200400801603E-03</v>
+      </c>
+      <c r="G3359" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3359" s="0">
         <v>0</v>
       </c>
     </row>
@@ -93291,13 +93571,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3061</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3061</Url>
-      <Description>HJYU5V3E37X6-122305290-3061</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -93312,24 +93585,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3073</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3073</Url>
+      <Description>HJYU5V3E37X6-122305290-3073</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DE3898-9D65-48F8-8773-F2C3103A102A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562ADDA0-D89A-4876-8B94-1650F4C724E4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A10A35-6E5B-4DE4-A87E-A629643E8168}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A17E9B-B59E-494F-A014-A3883ECEF75D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76896AE3-6069-468E-A33E-C23575429195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F660C6A7-58CC-4D58-8CD1-859D4F258981}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60E9722-085C-4F52-AE2E-FF360B653A39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EEFAE6-709E-429F-A7B4-D1F4A57544F5}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3369</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3379</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3369"/>
+  <dimension ref="A1:H3379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -93420,6 +93420,286 @@
         <v>0</v>
       </c>
       <c r="H3369" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3370">
+      <c r="A3370" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3370" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3370" s="0">
+        <v>40747</v>
+      </c>
+      <c r="D3370" s="0">
+        <v>5.33332111705637E-02</v>
+      </c>
+      <c r="E3370" s="0">
+        <v>78</v>
+      </c>
+      <c r="F3370" s="0">
+        <v>5.84269662921348E-02</v>
+      </c>
+      <c r="G3370" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3370" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3371">
+      <c r="A3371" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3371" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3371" s="0">
+        <v>96565</v>
+      </c>
+      <c r="D3371" s="0">
+        <v>0.126392655574287</v>
+      </c>
+      <c r="E3371" s="0">
+        <v>182</v>
+      </c>
+      <c r="F3371" s="0">
+        <v>0.136329588014981</v>
+      </c>
+      <c r="G3371" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3371" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3372">
+      <c r="A3372" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3372" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3372" s="0">
+        <v>138285</v>
+      </c>
+      <c r="D3372" s="0">
+        <v>0.180999413618706</v>
+      </c>
+      <c r="E3372" s="0">
+        <v>249</v>
+      </c>
+      <c r="F3372" s="0">
+        <v>0.186516853932584</v>
+      </c>
+      <c r="G3372" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3372" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3373">
+      <c r="A3373" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3373" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3373" s="0">
+        <v>118369</v>
+      </c>
+      <c r="D3373" s="0">
+        <v>0.154931623752631</v>
+      </c>
+      <c r="E3373" s="0">
+        <v>185</v>
+      </c>
+      <c r="F3373" s="0">
+        <v>0.138576779026217</v>
+      </c>
+      <c r="G3373" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3373" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3374">
+      <c r="A3374" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3374" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3374" s="0">
+        <v>113817</v>
+      </c>
+      <c r="D3374" s="0">
+        <v>0.148973570957372</v>
+      </c>
+      <c r="E3374" s="0">
+        <v>201</v>
+      </c>
+      <c r="F3374" s="0">
+        <v>0.150561797752809</v>
+      </c>
+      <c r="G3374" s="0">
+        <v>347</v>
+      </c>
+      <c r="H3374" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3375">
+      <c r="A3375" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3375" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3375" s="0">
+        <v>107361</v>
+      </c>
+      <c r="D3375" s="0">
+        <v>0.140523397660757</v>
+      </c>
+      <c r="E3375" s="0">
+        <v>206</v>
+      </c>
+      <c r="F3375" s="0">
+        <v>0.154307116104869</v>
+      </c>
+      <c r="G3375" s="0">
+        <v>918</v>
+      </c>
+      <c r="H3375" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3376">
+      <c r="A3376" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3376" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3376" s="0">
+        <v>77609</v>
+      </c>
+      <c r="D3376" s="0">
+        <v>0.101581397053434</v>
+      </c>
+      <c r="E3376" s="0">
+        <v>139</v>
+      </c>
+      <c r="F3376" s="0">
+        <v>0.104119850187266</v>
+      </c>
+      <c r="G3376" s="0">
+        <v>2019</v>
+      </c>
+      <c r="H3376" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3377">
+      <c r="A3377" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3377" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3377" s="0">
+        <v>46096</v>
+      </c>
+      <c r="D3377" s="0">
+        <v>6.03344467597198E-02</v>
+      </c>
+      <c r="E3377" s="0">
+        <v>65</v>
+      </c>
+      <c r="F3377" s="0">
+        <v>0.048689138576779</v>
+      </c>
+      <c r="G3377" s="0">
+        <v>3401</v>
+      </c>
+      <c r="H3377" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3378">
+      <c r="A3378" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3378" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3378" s="0">
+        <v>24105</v>
+      </c>
+      <c r="D3378" s="0">
+        <v>3.15507167464215E-02</v>
+      </c>
+      <c r="E3378" s="0">
+        <v>27</v>
+      </c>
+      <c r="F3378" s="0">
+        <v>2.02247191011236E-02</v>
+      </c>
+      <c r="G3378" s="0">
+        <v>4266</v>
+      </c>
+      <c r="H3378" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3379">
+      <c r="A3379" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3379" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3379" s="0">
+        <v>1054</v>
+      </c>
+      <c r="D3379" s="0">
+        <v>1.37956670610779E-03</v>
+      </c>
+      <c r="E3379" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3379" s="0">
+        <v>2.24719101123596E-03</v>
+      </c>
+      <c r="G3379" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3379" s="0">
         <v>0</v>
       </c>
     </row>
@@ -93852,11 +94132,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3084</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3094</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3084</Url>
-      <Description>HJYU5V3E37X6-122305290-3084</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3094</Url>
+      <Description>HJYU5V3E37X6-122305290-3094</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -93879,17 +94159,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533014A7-079F-4F5B-9A73-9C20599A4D6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E58F82-1CE9-4C2C-847C-D27B97124A73}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0257C500-6DF8-4F75-9992-FC15FEDDFEC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C723DF8-59AF-415F-9189-3488AD11410B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772964B-5B7D-4010-960B-0CBE8D9F317B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EDEC619-9CF2-4005-932C-8A98B89E3D03}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC2E57D-FE9B-4A22-B2FB-6F47B3EC7915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0C5C4E-A9C2-4D7D-86BD-F9348A29F81C}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3369</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3389</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3369"/>
+  <dimension ref="A1:H3389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -93420,6 +93420,566 @@
         <v>0</v>
       </c>
       <c r="H3369" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3370">
+      <c r="A3370" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3370" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3370" s="0">
+        <v>40747</v>
+      </c>
+      <c r="D3370" s="0">
+        <v>5.33332111705637E-02</v>
+      </c>
+      <c r="E3370" s="0">
+        <v>78</v>
+      </c>
+      <c r="F3370" s="0">
+        <v>5.84269662921348E-02</v>
+      </c>
+      <c r="G3370" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3370" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3371">
+      <c r="A3371" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3371" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3371" s="0">
+        <v>96565</v>
+      </c>
+      <c r="D3371" s="0">
+        <v>0.126392655574287</v>
+      </c>
+      <c r="E3371" s="0">
+        <v>182</v>
+      </c>
+      <c r="F3371" s="0">
+        <v>0.136329588014981</v>
+      </c>
+      <c r="G3371" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3371" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3372">
+      <c r="A3372" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3372" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3372" s="0">
+        <v>138285</v>
+      </c>
+      <c r="D3372" s="0">
+        <v>0.180999413618706</v>
+      </c>
+      <c r="E3372" s="0">
+        <v>249</v>
+      </c>
+      <c r="F3372" s="0">
+        <v>0.186516853932584</v>
+      </c>
+      <c r="G3372" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3372" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3373">
+      <c r="A3373" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3373" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3373" s="0">
+        <v>118369</v>
+      </c>
+      <c r="D3373" s="0">
+        <v>0.154931623752631</v>
+      </c>
+      <c r="E3373" s="0">
+        <v>185</v>
+      </c>
+      <c r="F3373" s="0">
+        <v>0.138576779026217</v>
+      </c>
+      <c r="G3373" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3373" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3374">
+      <c r="A3374" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3374" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3374" s="0">
+        <v>113817</v>
+      </c>
+      <c r="D3374" s="0">
+        <v>0.148973570957372</v>
+      </c>
+      <c r="E3374" s="0">
+        <v>201</v>
+      </c>
+      <c r="F3374" s="0">
+        <v>0.150561797752809</v>
+      </c>
+      <c r="G3374" s="0">
+        <v>347</v>
+      </c>
+      <c r="H3374" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3375">
+      <c r="A3375" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3375" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3375" s="0">
+        <v>107361</v>
+      </c>
+      <c r="D3375" s="0">
+        <v>0.140523397660757</v>
+      </c>
+      <c r="E3375" s="0">
+        <v>206</v>
+      </c>
+      <c r="F3375" s="0">
+        <v>0.154307116104869</v>
+      </c>
+      <c r="G3375" s="0">
+        <v>918</v>
+      </c>
+      <c r="H3375" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3376">
+      <c r="A3376" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3376" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3376" s="0">
+        <v>77609</v>
+      </c>
+      <c r="D3376" s="0">
+        <v>0.101581397053434</v>
+      </c>
+      <c r="E3376" s="0">
+        <v>139</v>
+      </c>
+      <c r="F3376" s="0">
+        <v>0.104119850187266</v>
+      </c>
+      <c r="G3376" s="0">
+        <v>2019</v>
+      </c>
+      <c r="H3376" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3377">
+      <c r="A3377" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3377" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3377" s="0">
+        <v>46096</v>
+      </c>
+      <c r="D3377" s="0">
+        <v>6.03344467597198E-02</v>
+      </c>
+      <c r="E3377" s="0">
+        <v>65</v>
+      </c>
+      <c r="F3377" s="0">
+        <v>0.048689138576779</v>
+      </c>
+      <c r="G3377" s="0">
+        <v>3401</v>
+      </c>
+      <c r="H3377" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3378">
+      <c r="A3378" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3378" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3378" s="0">
+        <v>24105</v>
+      </c>
+      <c r="D3378" s="0">
+        <v>3.15507167464215E-02</v>
+      </c>
+      <c r="E3378" s="0">
+        <v>27</v>
+      </c>
+      <c r="F3378" s="0">
+        <v>2.02247191011236E-02</v>
+      </c>
+      <c r="G3378" s="0">
+        <v>4266</v>
+      </c>
+      <c r="H3378" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3379">
+      <c r="A3379" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3379" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3379" s="0">
+        <v>1054</v>
+      </c>
+      <c r="D3379" s="0">
+        <v>1.37956670610779E-03</v>
+      </c>
+      <c r="E3379" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3379" s="0">
+        <v>2.24719101123596E-03</v>
+      </c>
+      <c r="G3379" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3379" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3380">
+      <c r="A3380" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3380" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3380" s="0">
+        <v>40822</v>
+      </c>
+      <c r="D3380" s="0">
+        <v>5.33525368659469E-02</v>
+      </c>
+      <c r="E3380" s="0">
+        <v>75</v>
+      </c>
+      <c r="F3380" s="0">
+        <v>6.64304694419841E-02</v>
+      </c>
+      <c r="G3380" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3380" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3381">
+      <c r="A3381" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3381" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3381" s="0">
+        <v>96724</v>
+      </c>
+      <c r="D3381" s="0">
+        <v>0.126413962466852</v>
+      </c>
+      <c r="E3381" s="0">
+        <v>159</v>
+      </c>
+      <c r="F3381" s="0">
+        <v>0.140832595217006</v>
+      </c>
+      <c r="G3381" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3382">
+      <c r="A3382" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3382" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3382" s="0">
+        <v>138473</v>
+      </c>
+      <c r="D3382" s="0">
+        <v>0.180978047068695</v>
+      </c>
+      <c r="E3382" s="0">
+        <v>188</v>
+      </c>
+      <c r="F3382" s="0">
+        <v>0.16651904340124</v>
+      </c>
+      <c r="G3382" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3382" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3383">
+      <c r="A3383" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3383" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3383" s="0">
+        <v>118558</v>
+      </c>
+      <c r="D3383" s="0">
+        <v>0.154950028556977</v>
+      </c>
+      <c r="E3383" s="0">
+        <v>189</v>
+      </c>
+      <c r="F3383" s="0">
+        <v>0.1674047829938</v>
+      </c>
+      <c r="G3383" s="0">
+        <v>111</v>
+      </c>
+      <c r="H3383" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3384">
+      <c r="A3384" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3384" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3384" s="0">
+        <v>114005</v>
+      </c>
+      <c r="D3384" s="0">
+        <v>0.148999460227384</v>
+      </c>
+      <c r="E3384" s="0">
+        <v>188</v>
+      </c>
+      <c r="F3384" s="0">
+        <v>0.16651904340124</v>
+      </c>
+      <c r="G3384" s="0">
+        <v>348</v>
+      </c>
+      <c r="H3384" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3385">
+      <c r="A3385" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3385" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3385" s="0">
+        <v>107523</v>
+      </c>
+      <c r="D3385" s="0">
+        <v>0.140527774764519</v>
+      </c>
+      <c r="E3385" s="0">
+        <v>162</v>
+      </c>
+      <c r="F3385" s="0">
+        <v>0.143489813994686</v>
+      </c>
+      <c r="G3385" s="0">
+        <v>920</v>
+      </c>
+      <c r="H3385" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3386">
+      <c r="A3386" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3386" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3386" s="0">
+        <v>77724</v>
+      </c>
+      <c r="D3386" s="0">
+        <v>0.101581808225194</v>
+      </c>
+      <c r="E3386" s="0">
+        <v>115</v>
+      </c>
+      <c r="F3386" s="0">
+        <v>0.101860053144376</v>
+      </c>
+      <c r="G3386" s="0">
+        <v>2020</v>
+      </c>
+      <c r="H3386" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3387">
+      <c r="A3387" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3387" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3387" s="0">
+        <v>46131</v>
+      </c>
+      <c r="D3387" s="0">
+        <v>6.02911635432609E-02</v>
+      </c>
+      <c r="E3387" s="0">
+        <v>35</v>
+      </c>
+      <c r="F3387" s="0">
+        <v>3.10008857395926E-02</v>
+      </c>
+      <c r="G3387" s="0">
+        <v>3406</v>
+      </c>
+      <c r="H3387" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3388">
+      <c r="A3388" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3388" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3388" s="0">
+        <v>24123</v>
+      </c>
+      <c r="D3388" s="0">
+        <v>3.15276871985017E-02</v>
+      </c>
+      <c r="E3388" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3388" s="0">
+        <v>1.59433126660762E-02</v>
+      </c>
+      <c r="G3388" s="0">
+        <v>4275</v>
+      </c>
+      <c r="H3388" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3389">
+      <c r="A3389" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B3389" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3389" s="0">
+        <v>1054</v>
+      </c>
+      <c r="D3389" s="0">
+        <v>1.37753108266886E-03</v>
+      </c>
+      <c r="E3389" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3389" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3389" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3389" s="0">
         <v>0</v>
       </c>
     </row>
@@ -93852,11 +94412,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3084</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3106</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3084</Url>
-      <Description>HJYU5V3E37X6-122305290-3084</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3106</Url>
+      <Description>HJYU5V3E37X6-122305290-3106</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -93879,17 +94439,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533014A7-079F-4F5B-9A73-9C20599A4D6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF52C59-EC5B-4971-9BBB-445A1ECFF9E0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0257C500-6DF8-4F75-9992-FC15FEDDFEC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7282BAC-7A72-43F7-B261-0B5E4B0D697D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772964B-5B7D-4010-960B-0CBE8D9F317B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EC3080-DBEA-4B2E-BE1C-75A791616C39}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC2E57D-FE9B-4A22-B2FB-6F47B3EC7915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF5D0C75-293F-445C-8DCD-3B388518DDAC}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3389</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3399</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3389"/>
+  <dimension ref="A1:H3399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -93980,6 +93980,286 @@
         <v>0</v>
       </c>
       <c r="H3389" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3390">
+      <c r="A3390" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3390" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3390" s="0">
+        <v>40875</v>
+      </c>
+      <c r="D3390" s="0">
+        <v>5.33554195400273E-02</v>
+      </c>
+      <c r="E3390" s="0">
+        <v>53</v>
+      </c>
+      <c r="F3390" s="0">
+        <v>0.055672268907563</v>
+      </c>
+      <c r="G3390" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3390" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3391">
+      <c r="A3391" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3391" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3391" s="0">
+        <v>96861</v>
+      </c>
+      <c r="D3391" s="0">
+        <v>0.126435701334962</v>
+      </c>
+      <c r="E3391" s="0">
+        <v>137</v>
+      </c>
+      <c r="F3391" s="0">
+        <v>0.14390756302521</v>
+      </c>
+      <c r="G3391" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3391" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3392">
+      <c r="A3392" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3392" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3392" s="0">
+        <v>138586</v>
+      </c>
+      <c r="D3392" s="0">
+        <v>0.180900652535149</v>
+      </c>
+      <c r="E3392" s="0">
+        <v>113</v>
+      </c>
+      <c r="F3392" s="0">
+        <v>0.118697478991597</v>
+      </c>
+      <c r="G3392" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3392" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3393">
+      <c r="A3393" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3393" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3393" s="0">
+        <v>118741</v>
+      </c>
+      <c r="D3393" s="0">
+        <v>0.154996351598835</v>
+      </c>
+      <c r="E3393" s="0">
+        <v>183</v>
+      </c>
+      <c r="F3393" s="0">
+        <v>0.192226890756303</v>
+      </c>
+      <c r="G3393" s="0">
+        <v>113</v>
+      </c>
+      <c r="H3393" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3394">
+      <c r="A3394" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3394" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3394" s="0">
+        <v>114168</v>
+      </c>
+      <c r="D3394" s="0">
+        <v>0.149027071267177</v>
+      </c>
+      <c r="E3394" s="0">
+        <v>163</v>
+      </c>
+      <c r="F3394" s="0">
+        <v>0.171218487394958</v>
+      </c>
+      <c r="G3394" s="0">
+        <v>349</v>
+      </c>
+      <c r="H3394" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3395">
+      <c r="A3395" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3395" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3395" s="0">
+        <v>107668</v>
+      </c>
+      <c r="D3395" s="0">
+        <v>0.140542417395368</v>
+      </c>
+      <c r="E3395" s="0">
+        <v>145</v>
+      </c>
+      <c r="F3395" s="0">
+        <v>0.152310924369748</v>
+      </c>
+      <c r="G3395" s="0">
+        <v>923</v>
+      </c>
+      <c r="H3395" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3396">
+      <c r="A3396" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3396" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3396" s="0">
+        <v>77826</v>
+      </c>
+      <c r="D3396" s="0">
+        <v>0.101588718804212</v>
+      </c>
+      <c r="E3396" s="0">
+        <v>102</v>
+      </c>
+      <c r="F3396" s="0">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G3396" s="0">
+        <v>2024</v>
+      </c>
+      <c r="H3396" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3397">
+      <c r="A3397" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3397" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3397" s="0">
+        <v>46175</v>
+      </c>
+      <c r="D3397" s="0">
+        <v>6.02736757739636E-02</v>
+      </c>
+      <c r="E3397" s="0">
+        <v>44</v>
+      </c>
+      <c r="F3397" s="0">
+        <v>0.046218487394958</v>
+      </c>
+      <c r="G3397" s="0">
+        <v>3412</v>
+      </c>
+      <c r="H3397" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3398">
+      <c r="A3398" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3398" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3398" s="0">
+        <v>24134</v>
+      </c>
+      <c r="D3398" s="0">
+        <v>0.031502867160343</v>
+      </c>
+      <c r="E3398" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3398" s="0">
+        <v>1.15546218487395E-02</v>
+      </c>
+      <c r="G3398" s="0">
+        <v>4279</v>
+      </c>
+      <c r="H3398" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3399">
+      <c r="A3399" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B3399" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3399" s="0">
+        <v>1055</v>
+      </c>
+      <c r="D3399" s="0">
+        <v>1.37712458996278E-03</v>
+      </c>
+      <c r="E3399" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3399" s="0">
+        <v>1.05042016806723E-03</v>
+      </c>
+      <c r="G3399" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3399" s="0">
         <v>0</v>
       </c>
     </row>
@@ -94412,11 +94692,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3106</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3117</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3106</Url>
-      <Description>HJYU5V3E37X6-122305290-3106</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3117</Url>
+      <Description>HJYU5V3E37X6-122305290-3117</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -94439,17 +94719,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF52C59-EC5B-4971-9BBB-445A1ECFF9E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23AE3522-A78C-4580-975B-6F5D5DF9D146}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7282BAC-7A72-43F7-B261-0B5E4B0D697D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CDAF123-66F4-470D-B481-A0F3EC445665}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EC3080-DBEA-4B2E-BE1C-75A791616C39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B2942E3-FCB1-4F8E-BC91-835CAA16CB85}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF5D0C75-293F-445C-8DCD-3B388518DDAC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B742229E-8306-4B73-A7CC-BFE4A144BEC8}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3399</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3409</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3399"/>
+  <dimension ref="A1:H3409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -94260,6 +94260,286 @@
         <v>0</v>
       </c>
       <c r="H3399" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3400">
+      <c r="A3400" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3400" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3400" s="0">
+        <v>40973</v>
+      </c>
+      <c r="D3400" s="0">
+        <v>0.053397887438666</v>
+      </c>
+      <c r="E3400" s="0">
+        <v>98</v>
+      </c>
+      <c r="F3400" s="0">
+        <v>7.99347471451876E-02</v>
+      </c>
+      <c r="G3400" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3400" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3401">
+      <c r="A3401" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3401" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3401" s="0">
+        <v>97052</v>
+      </c>
+      <c r="D3401" s="0">
+        <v>0.126482604927572</v>
+      </c>
+      <c r="E3401" s="0">
+        <v>191</v>
+      </c>
+      <c r="F3401" s="0">
+        <v>0.1557911908646</v>
+      </c>
+      <c r="G3401" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3401" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3402">
+      <c r="A3402" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3402" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3402" s="0">
+        <v>138788</v>
+      </c>
+      <c r="D3402" s="0">
+        <v>0.180874868860898</v>
+      </c>
+      <c r="E3402" s="0">
+        <v>202</v>
+      </c>
+      <c r="F3402" s="0">
+        <v>0.164763458401305</v>
+      </c>
+      <c r="G3402" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3402" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3403">
+      <c r="A3403" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3403" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3403" s="0">
+        <v>118916</v>
+      </c>
+      <c r="D3403" s="0">
+        <v>0.1549767696448</v>
+      </c>
+      <c r="E3403" s="0">
+        <v>175</v>
+      </c>
+      <c r="F3403" s="0">
+        <v>0.142740619902121</v>
+      </c>
+      <c r="G3403" s="0">
+        <v>113</v>
+      </c>
+      <c r="H3403" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3404">
+      <c r="A3404" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3404" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3404" s="0">
+        <v>114360</v>
+      </c>
+      <c r="D3404" s="0">
+        <v>0.149039182082978</v>
+      </c>
+      <c r="E3404" s="0">
+        <v>192</v>
+      </c>
+      <c r="F3404" s="0">
+        <v>0.156606851549755</v>
+      </c>
+      <c r="G3404" s="0">
+        <v>349</v>
+      </c>
+      <c r="H3404" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3405">
+      <c r="A3405" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3405" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3405" s="0">
+        <v>107833</v>
+      </c>
+      <c r="D3405" s="0">
+        <v>0.140532897180428</v>
+      </c>
+      <c r="E3405" s="0">
+        <v>165</v>
+      </c>
+      <c r="F3405" s="0">
+        <v>0.134584013050571</v>
+      </c>
+      <c r="G3405" s="0">
+        <v>926</v>
+      </c>
+      <c r="H3405" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3406">
+      <c r="A3406" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3406" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3406" s="0">
+        <v>77939</v>
+      </c>
+      <c r="D3406" s="0">
+        <v>0.1015736692232</v>
+      </c>
+      <c r="E3406" s="0">
+        <v>113</v>
+      </c>
+      <c r="F3406" s="0">
+        <v>9.21696574225122E-02</v>
+      </c>
+      <c r="G3406" s="0">
+        <v>2034</v>
+      </c>
+      <c r="H3406" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3407">
+      <c r="A3407" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3407" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3407" s="0">
+        <v>46247</v>
+      </c>
+      <c r="D3407" s="0">
+        <v>6.02712054371412E-02</v>
+      </c>
+      <c r="E3407" s="0">
+        <v>72</v>
+      </c>
+      <c r="F3407" s="0">
+        <v>5.87275693311582E-02</v>
+      </c>
+      <c r="G3407" s="0">
+        <v>3434</v>
+      </c>
+      <c r="H3407" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3408">
+      <c r="A3408" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3408" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3408" s="0">
+        <v>24149</v>
+      </c>
+      <c r="D3408" s="0">
+        <v>3.14720812182741E-02</v>
+      </c>
+      <c r="E3408" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3408" s="0">
+        <v>1.22349102773246E-02</v>
+      </c>
+      <c r="G3408" s="0">
+        <v>4289</v>
+      </c>
+      <c r="H3408" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3409">
+      <c r="A3409" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3409" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3409" s="0">
+        <v>1058</v>
+      </c>
+      <c r="D3409" s="0">
+        <v>1.37883398604224E-03</v>
+      </c>
+      <c r="E3409" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3409" s="0">
+        <v>2.44698205546493E-03</v>
+      </c>
+      <c r="G3409" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3409" s="0">
         <v>0</v>
       </c>
     </row>
@@ -94692,11 +94972,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3117</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3127</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3117</Url>
-      <Description>HJYU5V3E37X6-122305290-3117</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3127</Url>
+      <Description>HJYU5V3E37X6-122305290-3127</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -94719,17 +94999,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23AE3522-A78C-4580-975B-6F5D5DF9D146}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1B5057-298A-4AAA-A425-A15121328A0E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CDAF123-66F4-470D-B481-A0F3EC445665}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5DCFAB7-45AB-4ACA-9CFB-494F18C91B44}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B2942E3-FCB1-4F8E-BC91-835CAA16CB85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F22EEE-C68C-4DDF-8541-2B2AEE1507CC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B742229E-8306-4B73-A7CC-BFE4A144BEC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D304ED5-F3F6-406C-B920-A02670045165}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3399</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3419</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3399"/>
+  <dimension ref="A1:H3419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -94260,6 +94260,566 @@
         <v>0</v>
       </c>
       <c r="H3399" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3400">
+      <c r="A3400" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3400" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3400" s="0">
+        <v>40973</v>
+      </c>
+      <c r="D3400" s="0">
+        <v>0.053397887438666</v>
+      </c>
+      <c r="E3400" s="0">
+        <v>98</v>
+      </c>
+      <c r="F3400" s="0">
+        <v>7.99347471451876E-02</v>
+      </c>
+      <c r="G3400" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3400" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3401">
+      <c r="A3401" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3401" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3401" s="0">
+        <v>97052</v>
+      </c>
+      <c r="D3401" s="0">
+        <v>0.126482604927572</v>
+      </c>
+      <c r="E3401" s="0">
+        <v>191</v>
+      </c>
+      <c r="F3401" s="0">
+        <v>0.1557911908646</v>
+      </c>
+      <c r="G3401" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3401" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3402">
+      <c r="A3402" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3402" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3402" s="0">
+        <v>138788</v>
+      </c>
+      <c r="D3402" s="0">
+        <v>0.180874868860898</v>
+      </c>
+      <c r="E3402" s="0">
+        <v>202</v>
+      </c>
+      <c r="F3402" s="0">
+        <v>0.164763458401305</v>
+      </c>
+      <c r="G3402" s="0">
+        <v>45</v>
+      </c>
+      <c r="H3402" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3403">
+      <c r="A3403" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3403" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3403" s="0">
+        <v>118916</v>
+      </c>
+      <c r="D3403" s="0">
+        <v>0.1549767696448</v>
+      </c>
+      <c r="E3403" s="0">
+        <v>175</v>
+      </c>
+      <c r="F3403" s="0">
+        <v>0.142740619902121</v>
+      </c>
+      <c r="G3403" s="0">
+        <v>113</v>
+      </c>
+      <c r="H3403" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3404">
+      <c r="A3404" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3404" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3404" s="0">
+        <v>114360</v>
+      </c>
+      <c r="D3404" s="0">
+        <v>0.149039182082978</v>
+      </c>
+      <c r="E3404" s="0">
+        <v>192</v>
+      </c>
+      <c r="F3404" s="0">
+        <v>0.156606851549755</v>
+      </c>
+      <c r="G3404" s="0">
+        <v>349</v>
+      </c>
+      <c r="H3404" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3405">
+      <c r="A3405" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3405" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3405" s="0">
+        <v>107833</v>
+      </c>
+      <c r="D3405" s="0">
+        <v>0.140532897180428</v>
+      </c>
+      <c r="E3405" s="0">
+        <v>165</v>
+      </c>
+      <c r="F3405" s="0">
+        <v>0.134584013050571</v>
+      </c>
+      <c r="G3405" s="0">
+        <v>926</v>
+      </c>
+      <c r="H3405" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3406">
+      <c r="A3406" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3406" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3406" s="0">
+        <v>77939</v>
+      </c>
+      <c r="D3406" s="0">
+        <v>0.1015736692232</v>
+      </c>
+      <c r="E3406" s="0">
+        <v>113</v>
+      </c>
+      <c r="F3406" s="0">
+        <v>9.21696574225122E-02</v>
+      </c>
+      <c r="G3406" s="0">
+        <v>2034</v>
+      </c>
+      <c r="H3406" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3407">
+      <c r="A3407" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3407" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3407" s="0">
+        <v>46247</v>
+      </c>
+      <c r="D3407" s="0">
+        <v>6.02712054371412E-02</v>
+      </c>
+      <c r="E3407" s="0">
+        <v>72</v>
+      </c>
+      <c r="F3407" s="0">
+        <v>5.87275693311582E-02</v>
+      </c>
+      <c r="G3407" s="0">
+        <v>3434</v>
+      </c>
+      <c r="H3407" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3408">
+      <c r="A3408" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3408" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3408" s="0">
+        <v>24149</v>
+      </c>
+      <c r="D3408" s="0">
+        <v>3.14720812182741E-02</v>
+      </c>
+      <c r="E3408" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3408" s="0">
+        <v>1.22349102773246E-02</v>
+      </c>
+      <c r="G3408" s="0">
+        <v>4289</v>
+      </c>
+      <c r="H3408" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3409">
+      <c r="A3409" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B3409" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3409" s="0">
+        <v>1058</v>
+      </c>
+      <c r="D3409" s="0">
+        <v>1.37883398604224E-03</v>
+      </c>
+      <c r="E3409" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3409" s="0">
+        <v>2.44698205546493E-03</v>
+      </c>
+      <c r="G3409" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3409" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3410">
+      <c r="A3410" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3410" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3410" s="0">
+        <v>41087</v>
+      </c>
+      <c r="D3410" s="0">
+        <v>5.34328808524916E-02</v>
+      </c>
+      <c r="E3410" s="0">
+        <v>114</v>
+      </c>
+      <c r="F3410" s="0">
+        <v>6.98957694665849E-02</v>
+      </c>
+      <c r="G3410" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3410" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3411">
+      <c r="A3411" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3411" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3411" s="0">
+        <v>97293</v>
+      </c>
+      <c r="D3411" s="0">
+        <v>0.126527740569559</v>
+      </c>
+      <c r="E3411" s="0">
+        <v>241</v>
+      </c>
+      <c r="F3411" s="0">
+        <v>0.1477621091355</v>
+      </c>
+      <c r="G3411" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3411" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3412">
+      <c r="A3412" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3412" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3412" s="0">
+        <v>139070</v>
+      </c>
+      <c r="D3412" s="0">
+        <v>0.180857953614428</v>
+      </c>
+      <c r="E3412" s="0">
+        <v>282</v>
+      </c>
+      <c r="F3412" s="0">
+        <v>0.172900061312078</v>
+      </c>
+      <c r="G3412" s="0">
+        <v>46</v>
+      </c>
+      <c r="H3412" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3413">
+      <c r="A3413" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3413" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3413" s="0">
+        <v>119156</v>
+      </c>
+      <c r="D3413" s="0">
+        <v>0.154960166253547</v>
+      </c>
+      <c r="E3413" s="0">
+        <v>240</v>
+      </c>
+      <c r="F3413" s="0">
+        <v>0.147148988350705</v>
+      </c>
+      <c r="G3413" s="0">
+        <v>113</v>
+      </c>
+      <c r="H3413" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3414">
+      <c r="A3414" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3414" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3414" s="0">
+        <v>114617</v>
+      </c>
+      <c r="D3414" s="0">
+        <v>0.149057281005428</v>
+      </c>
+      <c r="E3414" s="0">
+        <v>257</v>
+      </c>
+      <c r="F3414" s="0">
+        <v>0.157572041692213</v>
+      </c>
+      <c r="G3414" s="0">
+        <v>350</v>
+      </c>
+      <c r="H3414" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3415">
+      <c r="A3415" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3415" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3415" s="0">
+        <v>108064</v>
+      </c>
+      <c r="D3415" s="0">
+        <v>0.140535226140717</v>
+      </c>
+      <c r="E3415" s="0">
+        <v>231</v>
+      </c>
+      <c r="F3415" s="0">
+        <v>0.141630901287554</v>
+      </c>
+      <c r="G3415" s="0">
+        <v>933</v>
+      </c>
+      <c r="H3415" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3416">
+      <c r="A3416" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3416" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3416" s="0">
+        <v>78097</v>
+      </c>
+      <c r="D3416" s="0">
+        <v>0.101563698881326</v>
+      </c>
+      <c r="E3416" s="0">
+        <v>158</v>
+      </c>
+      <c r="F3416" s="0">
+        <v>9.68730839975475E-02</v>
+      </c>
+      <c r="G3416" s="0">
+        <v>2052</v>
+      </c>
+      <c r="H3416" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3417">
+      <c r="A3417" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3417" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3417" s="0">
+        <v>46332</v>
+      </c>
+      <c r="D3417" s="0">
+        <v>6.02539059959997E-02</v>
+      </c>
+      <c r="E3417" s="0">
+        <v>85</v>
+      </c>
+      <c r="F3417" s="0">
+        <v>5.21152667075414E-02</v>
+      </c>
+      <c r="G3417" s="0">
+        <v>3451</v>
+      </c>
+      <c r="H3417" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3418">
+      <c r="A3418" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3418" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3418" s="0">
+        <v>24175</v>
+      </c>
+      <c r="D3418" s="0">
+        <v>3.14391387691723E-02</v>
+      </c>
+      <c r="E3418" s="0">
+        <v>26</v>
+      </c>
+      <c r="F3418" s="0">
+        <v>1.59411404046597E-02</v>
+      </c>
+      <c r="G3418" s="0">
+        <v>4313</v>
+      </c>
+      <c r="H3418" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3419">
+      <c r="A3419" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B3419" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3419" s="0">
+        <v>1055</v>
+      </c>
+      <c r="D3419" s="0">
+        <v>0.001372007917331</v>
+      </c>
+      <c r="E3419" s="0">
+        <v>-3</v>
+      </c>
+      <c r="F3419" s="0">
+        <v>-1.83936235438381E-03</v>
+      </c>
+      <c r="G3419" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3419" s="0">
         <v>0</v>
       </c>
     </row>
@@ -94692,11 +95252,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3117</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3139</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3117</Url>
-      <Description>HJYU5V3E37X6-122305290-3117</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3139</Url>
+      <Description>HJYU5V3E37X6-122305290-3139</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -94719,17 +95279,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23AE3522-A78C-4580-975B-6F5D5DF9D146}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62FE9FAF-AAA3-43E8-ACF3-8F0330C8CB92}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CDAF123-66F4-470D-B481-A0F3EC445665}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFF5C0C5-3CF1-4B24-95E4-66EBC14EEF2B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B2942E3-FCB1-4F8E-BC91-835CAA16CB85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42ECE9DE-3ACD-4823-9606-83A482B467EA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B742229E-8306-4B73-A7CC-BFE4A144BEC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55FFE45F-2C96-4A30-8A4C-D00E1DC6214E}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3419</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3429</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3419"/>
+  <dimension ref="A1:H3429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -94820,6 +94820,286 @@
         <v>0</v>
       </c>
       <c r="H3419" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3420">
+      <c r="A3420" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3420" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3420" s="0">
+        <v>41223</v>
+      </c>
+      <c r="D3420" s="0">
+        <v>5.34710872441435E-02</v>
+      </c>
+      <c r="E3420" s="0">
+        <v>136</v>
+      </c>
+      <c r="F3420" s="0">
+        <v>6.82046138415246E-02</v>
+      </c>
+      <c r="G3420" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3420" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3421">
+      <c r="A3421" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3421" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3421" s="0">
+        <v>97605</v>
+      </c>
+      <c r="D3421" s="0">
+        <v>0.126605183282746</v>
+      </c>
+      <c r="E3421" s="0">
+        <v>312</v>
+      </c>
+      <c r="F3421" s="0">
+        <v>0.156469408224674</v>
+      </c>
+      <c r="G3421" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3421" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3422">
+      <c r="A3422" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3422" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3422" s="0">
+        <v>139369</v>
+      </c>
+      <c r="D3422" s="0">
+        <v>0.180778011258983</v>
+      </c>
+      <c r="E3422" s="0">
+        <v>299</v>
+      </c>
+      <c r="F3422" s="0">
+        <v>0.149949849548646</v>
+      </c>
+      <c r="G3422" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3422" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3423">
+      <c r="A3423" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3423" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3423" s="0">
+        <v>119439</v>
+      </c>
+      <c r="D3423" s="0">
+        <v>0.1549264534205</v>
+      </c>
+      <c r="E3423" s="0">
+        <v>283</v>
+      </c>
+      <c r="F3423" s="0">
+        <v>0.141925777331996</v>
+      </c>
+      <c r="G3423" s="0">
+        <v>115</v>
+      </c>
+      <c r="H3423" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3424">
+      <c r="A3424" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3424" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3424" s="0">
+        <v>114928</v>
+      </c>
+      <c r="D3424" s="0">
+        <v>0.149075155005578</v>
+      </c>
+      <c r="E3424" s="0">
+        <v>311</v>
+      </c>
+      <c r="F3424" s="0">
+        <v>0.155967903711133</v>
+      </c>
+      <c r="G3424" s="0">
+        <v>350</v>
+      </c>
+      <c r="H3424" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3425">
+      <c r="A3425" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3425" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3425" s="0">
+        <v>108356</v>
+      </c>
+      <c r="D3425" s="0">
+        <v>0.140550496796119</v>
+      </c>
+      <c r="E3425" s="0">
+        <v>292</v>
+      </c>
+      <c r="F3425" s="0">
+        <v>0.146439317953862</v>
+      </c>
+      <c r="G3425" s="0">
+        <v>942</v>
+      </c>
+      <c r="H3425" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3426">
+      <c r="A3426" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3426" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3426" s="0">
+        <v>78317</v>
+      </c>
+      <c r="D3426" s="0">
+        <v>0.101586375074584</v>
+      </c>
+      <c r="E3426" s="0">
+        <v>220</v>
+      </c>
+      <c r="F3426" s="0">
+        <v>0.110330992978937</v>
+      </c>
+      <c r="G3426" s="0">
+        <v>2061</v>
+      </c>
+      <c r="H3426" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3427">
+      <c r="A3427" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3427" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3427" s="0">
+        <v>46440</v>
+      </c>
+      <c r="D3427" s="0">
+        <v>6.02381508288583E-02</v>
+      </c>
+      <c r="E3427" s="0">
+        <v>108</v>
+      </c>
+      <c r="F3427" s="0">
+        <v>5.41624874623872E-02</v>
+      </c>
+      <c r="G3427" s="0">
+        <v>3467</v>
+      </c>
+      <c r="H3427" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3428">
+      <c r="A3428" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3428" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3428" s="0">
+        <v>24221</v>
+      </c>
+      <c r="D3428" s="0">
+        <v>3.14174903364724E-02</v>
+      </c>
+      <c r="E3428" s="0">
+        <v>46</v>
+      </c>
+      <c r="F3428" s="0">
+        <v>2.30692076228686E-02</v>
+      </c>
+      <c r="G3428" s="0">
+        <v>4331</v>
+      </c>
+      <c r="H3428" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3429">
+      <c r="A3429" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B3429" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3429" s="0">
+        <v>1042</v>
+      </c>
+      <c r="D3429" s="0">
+        <v>1.35159675201702E-03</v>
+      </c>
+      <c r="E3429" s="0">
+        <v>-13</v>
+      </c>
+      <c r="F3429" s="0">
+        <v>-6.51955867602808E-03</v>
+      </c>
+      <c r="G3429" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3429" s="0">
         <v>0</v>
       </c>
     </row>
@@ -95252,11 +95532,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3139</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3149</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3139</Url>
-      <Description>HJYU5V3E37X6-122305290-3139</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3149</Url>
+      <Description>HJYU5V3E37X6-122305290-3149</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -95279,17 +95559,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62FE9FAF-AAA3-43E8-ACF3-8F0330C8CB92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1248031-F1AD-4CE6-854F-EE583D1498B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFF5C0C5-3CF1-4B24-95E4-66EBC14EEF2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A47010C-348D-417F-B91E-B9E9F60986E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42ECE9DE-3ACD-4823-9606-83A482B467EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF9D8B6-2DD6-44E4-A0CC-0A4D854D8690}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55FFE45F-2C96-4A30-8A4C-D00E1DC6214E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCBDAF2-AF05-4DFE-B8EB-181F7DEE6DFA}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3429</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3459</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3429"/>
+  <dimension ref="A1:H3459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -95100,6 +95100,846 @@
         <v>0</v>
       </c>
       <c r="H3429" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3430">
+      <c r="A3430" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3430" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3430" s="0">
+        <v>41344</v>
+      </c>
+      <c r="D3430" s="0">
+        <v>5.35188404596428E-02</v>
+      </c>
+      <c r="E3430" s="0">
+        <v>121</v>
+      </c>
+      <c r="F3430" s="0">
+        <v>7.69230769230769E-02</v>
+      </c>
+      <c r="G3430" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3430" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3431">
+      <c r="A3431" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3431" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3431" s="0">
+        <v>97852</v>
+      </c>
+      <c r="D3431" s="0">
+        <v>0.126667124048398</v>
+      </c>
+      <c r="E3431" s="0">
+        <v>247</v>
+      </c>
+      <c r="F3431" s="0">
+        <v>0.15702479338843</v>
+      </c>
+      <c r="G3431" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3431" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3432">
+      <c r="A3432" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3432" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3432" s="0">
+        <v>139615</v>
+      </c>
+      <c r="D3432" s="0">
+        <v>0.180728350202521</v>
+      </c>
+      <c r="E3432" s="0">
+        <v>246</v>
+      </c>
+      <c r="F3432" s="0">
+        <v>0.156389065479975</v>
+      </c>
+      <c r="G3432" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3432" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3433">
+      <c r="A3433" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3433" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3433" s="0">
+        <v>119660</v>
+      </c>
+      <c r="D3433" s="0">
+        <v>0.154897069693326</v>
+      </c>
+      <c r="E3433" s="0">
+        <v>221</v>
+      </c>
+      <c r="F3433" s="0">
+        <v>0.140495867768595</v>
+      </c>
+      <c r="G3433" s="0">
+        <v>117</v>
+      </c>
+      <c r="H3433" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3434">
+      <c r="A3434" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3434" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3434" s="0">
+        <v>115175</v>
+      </c>
+      <c r="D3434" s="0">
+        <v>0.149091342152171</v>
+      </c>
+      <c r="E3434" s="0">
+        <v>247</v>
+      </c>
+      <c r="F3434" s="0">
+        <v>0.15702479338843</v>
+      </c>
+      <c r="G3434" s="0">
+        <v>352</v>
+      </c>
+      <c r="H3434" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3435">
+      <c r="A3435" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3435" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3435" s="0">
+        <v>108556</v>
+      </c>
+      <c r="D3435" s="0">
+        <v>0.140523201551301</v>
+      </c>
+      <c r="E3435" s="0">
+        <v>200</v>
+      </c>
+      <c r="F3435" s="0">
+        <v>0.127145581691036</v>
+      </c>
+      <c r="G3435" s="0">
+        <v>942</v>
+      </c>
+      <c r="H3435" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3436">
+      <c r="A3436" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3436" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3436" s="0">
+        <v>78496</v>
+      </c>
+      <c r="D3436" s="0">
+        <v>0.101611235021288</v>
+      </c>
+      <c r="E3436" s="0">
+        <v>179</v>
+      </c>
+      <c r="F3436" s="0">
+        <v>0.113795295613477</v>
+      </c>
+      <c r="G3436" s="0">
+        <v>2071</v>
+      </c>
+      <c r="H3436" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3437">
+      <c r="A3437" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3437" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3437" s="0">
+        <v>46516</v>
+      </c>
+      <c r="D3437" s="0">
+        <v>6.02138734234893E-02</v>
+      </c>
+      <c r="E3437" s="0">
+        <v>76</v>
+      </c>
+      <c r="F3437" s="0">
+        <v>4.83153210425938E-02</v>
+      </c>
+      <c r="G3437" s="0">
+        <v>3490</v>
+      </c>
+      <c r="H3437" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3438">
+      <c r="A3438" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3438" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3438" s="0">
+        <v>24258</v>
+      </c>
+      <c r="D3438" s="0">
+        <v>3.14014133095495E-02</v>
+      </c>
+      <c r="E3438" s="0">
+        <v>37</v>
+      </c>
+      <c r="F3438" s="0">
+        <v>2.35219326128417E-02</v>
+      </c>
+      <c r="G3438" s="0">
+        <v>4349</v>
+      </c>
+      <c r="H3438" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3439">
+      <c r="A3439" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3439" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3439" s="0">
+        <v>1041</v>
+      </c>
+      <c r="D3439" s="0">
+        <v>1.34755013831482E-03</v>
+      </c>
+      <c r="E3439" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F3439" s="0">
+        <v>-6.35727908455181E-04</v>
+      </c>
+      <c r="G3439" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3439" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3440">
+      <c r="A3440" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3440" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3440" s="0">
+        <v>41425</v>
+      </c>
+      <c r="D3440" s="0">
+        <v>0.053528486717053</v>
+      </c>
+      <c r="E3440" s="0">
+        <v>81</v>
+      </c>
+      <c r="F3440" s="0">
+        <v>5.89519650655022E-02</v>
+      </c>
+      <c r="G3440" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3440" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3441">
+      <c r="A3441" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3441" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3441" s="0">
+        <v>98061</v>
+      </c>
+      <c r="D3441" s="0">
+        <v>0.126712297790246</v>
+      </c>
+      <c r="E3441" s="0">
+        <v>209</v>
+      </c>
+      <c r="F3441" s="0">
+        <v>0.152110625909753</v>
+      </c>
+      <c r="G3441" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3441" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3442">
+      <c r="A3442" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3442" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3442" s="0">
+        <v>139854</v>
+      </c>
+      <c r="D3442" s="0">
+        <v>0.18071630612738</v>
+      </c>
+      <c r="E3442" s="0">
+        <v>239</v>
+      </c>
+      <c r="F3442" s="0">
+        <v>0.173944687045124</v>
+      </c>
+      <c r="G3442" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3442" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3443">
+      <c r="A3443" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3443" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3443" s="0">
+        <v>119878</v>
+      </c>
+      <c r="D3443" s="0">
+        <v>0.154903752098175</v>
+      </c>
+      <c r="E3443" s="0">
+        <v>218</v>
+      </c>
+      <c r="F3443" s="0">
+        <v>0.158660844250364</v>
+      </c>
+      <c r="G3443" s="0">
+        <v>117</v>
+      </c>
+      <c r="H3443" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3444">
+      <c r="A3444" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3444" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3444" s="0">
+        <v>115365</v>
+      </c>
+      <c r="D3444" s="0">
+        <v>0.149072151360599</v>
+      </c>
+      <c r="E3444" s="0">
+        <v>190</v>
+      </c>
+      <c r="F3444" s="0">
+        <v>0.138282387190684</v>
+      </c>
+      <c r="G3444" s="0">
+        <v>352</v>
+      </c>
+      <c r="H3444" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3445">
+      <c r="A3445" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3445" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3445" s="0">
+        <v>108757</v>
+      </c>
+      <c r="D3445" s="0">
+        <v>0.140533437052179</v>
+      </c>
+      <c r="E3445" s="0">
+        <v>201</v>
+      </c>
+      <c r="F3445" s="0">
+        <v>0.146288209606987</v>
+      </c>
+      <c r="G3445" s="0">
+        <v>943</v>
+      </c>
+      <c r="H3445" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3446">
+      <c r="A3446" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3446" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3446" s="0">
+        <v>78634</v>
+      </c>
+      <c r="D3446" s="0">
+        <v>0.101609149656216</v>
+      </c>
+      <c r="E3446" s="0">
+        <v>138</v>
+      </c>
+      <c r="F3446" s="0">
+        <v>0.100436681222707</v>
+      </c>
+      <c r="G3446" s="0">
+        <v>2073</v>
+      </c>
+      <c r="H3446" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3447">
+      <c r="A3447" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3447" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3447" s="0">
+        <v>46580</v>
+      </c>
+      <c r="D3447" s="0">
+        <v>6.01896659331401E-02</v>
+      </c>
+      <c r="E3447" s="0">
+        <v>64</v>
+      </c>
+      <c r="F3447" s="0">
+        <v>4.65793304221252E-02</v>
+      </c>
+      <c r="G3447" s="0">
+        <v>3497</v>
+      </c>
+      <c r="H3447" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3448">
+      <c r="A3448" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3448" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3448" s="0">
+        <v>24273</v>
+      </c>
+      <c r="D3448" s="0">
+        <v>3.13650442506464E-02</v>
+      </c>
+      <c r="E3448" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3448" s="0">
+        <v>1.09170305676856E-02</v>
+      </c>
+      <c r="G3448" s="0">
+        <v>4355</v>
+      </c>
+      <c r="H3448" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3449">
+      <c r="A3449" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B3449" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3449" s="0">
+        <v>1060</v>
+      </c>
+      <c r="D3449" s="0">
+        <v>1.36970901436515E-03</v>
+      </c>
+      <c r="E3449" s="0">
+        <v>19</v>
+      </c>
+      <c r="F3449" s="0">
+        <v>1.38282387190684E-02</v>
+      </c>
+      <c r="G3449" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3449" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3450">
+      <c r="A3450" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3450" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3450" s="0">
+        <v>41490</v>
+      </c>
+      <c r="D3450" s="0">
+        <v>0.053535207560219</v>
+      </c>
+      <c r="E3450" s="0">
+        <v>65</v>
+      </c>
+      <c r="F3450" s="0">
+        <v>5.81915846016115E-02</v>
+      </c>
+      <c r="G3450" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3450" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3451">
+      <c r="A3451" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3451" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3451" s="0">
+        <v>98216</v>
+      </c>
+      <c r="D3451" s="0">
+        <v>0.126729668492034</v>
+      </c>
+      <c r="E3451" s="0">
+        <v>155</v>
+      </c>
+      <c r="F3451" s="0">
+        <v>0.13876454789615</v>
+      </c>
+      <c r="G3451" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3451" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3452">
+      <c r="A3452" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3452" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3452" s="0">
+        <v>140048</v>
+      </c>
+      <c r="D3452" s="0">
+        <v>0.180706164097218</v>
+      </c>
+      <c r="E3452" s="0">
+        <v>194</v>
+      </c>
+      <c r="F3452" s="0">
+        <v>0.173679498657117</v>
+      </c>
+      <c r="G3452" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3452" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3453">
+      <c r="A3453" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3453" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3453" s="0">
+        <v>120051</v>
+      </c>
+      <c r="D3453" s="0">
+        <v>0.154903716625979</v>
+      </c>
+      <c r="E3453" s="0">
+        <v>173</v>
+      </c>
+      <c r="F3453" s="0">
+        <v>0.154879140555058</v>
+      </c>
+      <c r="G3453" s="0">
+        <v>117</v>
+      </c>
+      <c r="H3453" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3454">
+      <c r="A3454" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3454" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3454" s="0">
+        <v>115540</v>
+      </c>
+      <c r="D3454" s="0">
+        <v>0.149083101506573</v>
+      </c>
+      <c r="E3454" s="0">
+        <v>175</v>
+      </c>
+      <c r="F3454" s="0">
+        <v>0.156669650850492</v>
+      </c>
+      <c r="G3454" s="0">
+        <v>352</v>
+      </c>
+      <c r="H3454" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3455">
+      <c r="A3455" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3455" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3455" s="0">
+        <v>108914</v>
+      </c>
+      <c r="D3455" s="0">
+        <v>0.140533468214358</v>
+      </c>
+      <c r="E3455" s="0">
+        <v>157</v>
+      </c>
+      <c r="F3455" s="0">
+        <v>0.140555058191585</v>
+      </c>
+      <c r="G3455" s="0">
+        <v>945</v>
+      </c>
+      <c r="H3455" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3456">
+      <c r="A3456" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3456" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3456" s="0">
+        <v>78751</v>
+      </c>
+      <c r="D3456" s="0">
+        <v>0.10161366909074</v>
+      </c>
+      <c r="E3456" s="0">
+        <v>117</v>
+      </c>
+      <c r="F3456" s="0">
+        <v>0.104744852282901</v>
+      </c>
+      <c r="G3456" s="0">
+        <v>2074</v>
+      </c>
+      <c r="H3456" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3457">
+      <c r="A3457" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3457" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3457" s="0">
+        <v>46636</v>
+      </c>
+      <c r="D3457" s="0">
+        <v>6.01751732894282E-02</v>
+      </c>
+      <c r="E3457" s="0">
+        <v>56</v>
+      </c>
+      <c r="F3457" s="0">
+        <v>5.01342882721576E-02</v>
+      </c>
+      <c r="G3457" s="0">
+        <v>3506</v>
+      </c>
+      <c r="H3457" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3458">
+      <c r="A3458" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3458" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3458" s="0">
+        <v>24296</v>
+      </c>
+      <c r="D3458" s="0">
+        <v>3.13495156154033E-02</v>
+      </c>
+      <c r="E3458" s="0">
+        <v>23</v>
+      </c>
+      <c r="F3458" s="0">
+        <v>2.05908683974933E-02</v>
+      </c>
+      <c r="G3458" s="0">
+        <v>4361</v>
+      </c>
+      <c r="H3458" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3459">
+      <c r="A3459" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B3459" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3459" s="0">
+        <v>1062</v>
+      </c>
+      <c r="D3459" s="0">
+        <v>1.37031550804899E-03</v>
+      </c>
+      <c r="E3459" s="0">
+        <v>2</v>
+      </c>
+      <c r="F3459" s="0">
+        <v>1.7905102954342E-03</v>
+      </c>
+      <c r="G3459" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3459" s="0">
         <v>0</v>
       </c>
     </row>
@@ -95532,11 +96372,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3149</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3183</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3149</Url>
-      <Description>HJYU5V3E37X6-122305290-3149</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3183</Url>
+      <Description>HJYU5V3E37X6-122305290-3183</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -95559,17 +96399,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1248031-F1AD-4CE6-854F-EE583D1498B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{580163C2-109F-49B6-9F1C-711677BB7B51}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A47010C-348D-417F-B91E-B9E9F60986E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68667499-0395-459D-934F-18EFF00E6028}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF9D8B6-2DD6-44E4-A0CC-0A4D854D8690}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5298B7-5BA4-46D5-9750-6D83F312FE83}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCBDAF2-AF05-4DFE-B8EB-181F7DEE6DFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0DC302-F307-4D38-A9E0-8B8C771E451C}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3429</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3439</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3429"/>
+  <dimension ref="A1:H3439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -95100,6 +95100,286 @@
         <v>0</v>
       </c>
       <c r="H3429" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3430">
+      <c r="A3430" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3430" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3430" s="0">
+        <v>41344</v>
+      </c>
+      <c r="D3430" s="0">
+        <v>5.35188404596428E-02</v>
+      </c>
+      <c r="E3430" s="0">
+        <v>121</v>
+      </c>
+      <c r="F3430" s="0">
+        <v>7.69230769230769E-02</v>
+      </c>
+      <c r="G3430" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3430" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3431">
+      <c r="A3431" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3431" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3431" s="0">
+        <v>97852</v>
+      </c>
+      <c r="D3431" s="0">
+        <v>0.126667124048398</v>
+      </c>
+      <c r="E3431" s="0">
+        <v>247</v>
+      </c>
+      <c r="F3431" s="0">
+        <v>0.15702479338843</v>
+      </c>
+      <c r="G3431" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3431" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3432">
+      <c r="A3432" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3432" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3432" s="0">
+        <v>139615</v>
+      </c>
+      <c r="D3432" s="0">
+        <v>0.180728350202521</v>
+      </c>
+      <c r="E3432" s="0">
+        <v>246</v>
+      </c>
+      <c r="F3432" s="0">
+        <v>0.156389065479975</v>
+      </c>
+      <c r="G3432" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3432" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3433">
+      <c r="A3433" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3433" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3433" s="0">
+        <v>119660</v>
+      </c>
+      <c r="D3433" s="0">
+        <v>0.154897069693326</v>
+      </c>
+      <c r="E3433" s="0">
+        <v>221</v>
+      </c>
+      <c r="F3433" s="0">
+        <v>0.140495867768595</v>
+      </c>
+      <c r="G3433" s="0">
+        <v>117</v>
+      </c>
+      <c r="H3433" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3434">
+      <c r="A3434" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3434" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3434" s="0">
+        <v>115175</v>
+      </c>
+      <c r="D3434" s="0">
+        <v>0.149091342152171</v>
+      </c>
+      <c r="E3434" s="0">
+        <v>247</v>
+      </c>
+      <c r="F3434" s="0">
+        <v>0.15702479338843</v>
+      </c>
+      <c r="G3434" s="0">
+        <v>352</v>
+      </c>
+      <c r="H3434" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3435">
+      <c r="A3435" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3435" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3435" s="0">
+        <v>108556</v>
+      </c>
+      <c r="D3435" s="0">
+        <v>0.140523201551301</v>
+      </c>
+      <c r="E3435" s="0">
+        <v>200</v>
+      </c>
+      <c r="F3435" s="0">
+        <v>0.127145581691036</v>
+      </c>
+      <c r="G3435" s="0">
+        <v>942</v>
+      </c>
+      <c r="H3435" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3436">
+      <c r="A3436" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3436" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3436" s="0">
+        <v>78496</v>
+      </c>
+      <c r="D3436" s="0">
+        <v>0.101611235021288</v>
+      </c>
+      <c r="E3436" s="0">
+        <v>179</v>
+      </c>
+      <c r="F3436" s="0">
+        <v>0.113795295613477</v>
+      </c>
+      <c r="G3436" s="0">
+        <v>2071</v>
+      </c>
+      <c r="H3436" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3437">
+      <c r="A3437" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3437" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3437" s="0">
+        <v>46516</v>
+      </c>
+      <c r="D3437" s="0">
+        <v>6.02138734234893E-02</v>
+      </c>
+      <c r="E3437" s="0">
+        <v>76</v>
+      </c>
+      <c r="F3437" s="0">
+        <v>4.83153210425938E-02</v>
+      </c>
+      <c r="G3437" s="0">
+        <v>3490</v>
+      </c>
+      <c r="H3437" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3438">
+      <c r="A3438" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3438" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3438" s="0">
+        <v>24258</v>
+      </c>
+      <c r="D3438" s="0">
+        <v>3.14014133095495E-02</v>
+      </c>
+      <c r="E3438" s="0">
+        <v>37</v>
+      </c>
+      <c r="F3438" s="0">
+        <v>2.35219326128417E-02</v>
+      </c>
+      <c r="G3438" s="0">
+        <v>4349</v>
+      </c>
+      <c r="H3438" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3439">
+      <c r="A3439" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B3439" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3439" s="0">
+        <v>1041</v>
+      </c>
+      <c r="D3439" s="0">
+        <v>1.34755013831482E-03</v>
+      </c>
+      <c r="E3439" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F3439" s="0">
+        <v>-6.35727908455181E-04</v>
+      </c>
+      <c r="G3439" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3439" s="0">
         <v>0</v>
       </c>
     </row>
@@ -95532,11 +95812,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3149</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3161</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3149</Url>
-      <Description>HJYU5V3E37X6-122305290-3149</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3161</Url>
+      <Description>HJYU5V3E37X6-122305290-3161</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -95559,17 +95839,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1248031-F1AD-4CE6-854F-EE583D1498B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D4A459-676E-4F0C-88E2-B30987BD25F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A47010C-348D-417F-B91E-B9E9F60986E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BC6555F-E778-4078-98E2-6690951267DF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF9D8B6-2DD6-44E4-A0CC-0A4D854D8690}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EFDC131-E7C1-4D02-A8A4-451016DB201B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCBDAF2-AF05-4DFE-B8EB-181F7DEE6DFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6466E01-0028-40C5-9238-7A3118C30078}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Age.xlsx
+++ b/data_tndoh/Public-Dataset-Age.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3459</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$3469</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3459"/>
+  <dimension ref="A1:H3469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -95940,6 +95940,286 @@
         <v>0</v>
       </c>
       <c r="H3459" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3460">
+      <c r="A3460" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3460" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C3460" s="0">
+        <v>41524</v>
+      </c>
+      <c r="D3460" s="0">
+        <v>5.35314873281053E-02</v>
+      </c>
+      <c r="E3460" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3460" s="0">
+        <v>4.93468795355588E-02</v>
+      </c>
+      <c r="G3460" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3460" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3461">
+      <c r="A3461" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3461" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C3461" s="0">
+        <v>98304</v>
+      </c>
+      <c r="D3461" s="0">
+        <v>0.126730549328149</v>
+      </c>
+      <c r="E3461" s="0">
+        <v>88</v>
+      </c>
+      <c r="F3461" s="0">
+        <v>0.127721335268505</v>
+      </c>
+      <c r="G3461" s="0">
+        <v>5</v>
+      </c>
+      <c r="H3461" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3462">
+      <c r="A3462" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3462" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C3462" s="0">
+        <v>140163</v>
+      </c>
+      <c r="D3462" s="0">
+        <v>0.180693908543715</v>
+      </c>
+      <c r="E3462" s="0">
+        <v>115</v>
+      </c>
+      <c r="F3462" s="0">
+        <v>0.166908563134978</v>
+      </c>
+      <c r="G3462" s="0">
+        <v>47</v>
+      </c>
+      <c r="H3462" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3463">
+      <c r="A3463" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3463" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C3463" s="0">
+        <v>120179</v>
+      </c>
+      <c r="D3463" s="0">
+        <v>0.154931138994422</v>
+      </c>
+      <c r="E3463" s="0">
+        <v>128</v>
+      </c>
+      <c r="F3463" s="0">
+        <v>0.18577648766328</v>
+      </c>
+      <c r="G3463" s="0">
+        <v>117</v>
+      </c>
+      <c r="H3463" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3464">
+      <c r="A3464" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3464" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C3464" s="0">
+        <v>115639</v>
+      </c>
+      <c r="D3464" s="0">
+        <v>0.14907830804197</v>
+      </c>
+      <c r="E3464" s="0">
+        <v>99</v>
+      </c>
+      <c r="F3464" s="0">
+        <v>0.143686502177068</v>
+      </c>
+      <c r="G3464" s="0">
+        <v>352</v>
+      </c>
+      <c r="H3464" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3465">
+      <c r="A3465" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3465" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C3465" s="0">
+        <v>109036</v>
+      </c>
+      <c r="D3465" s="0">
+        <v>0.140565919764649</v>
+      </c>
+      <c r="E3465" s="0">
+        <v>122</v>
+      </c>
+      <c r="F3465" s="0">
+        <v>0.177068214804064</v>
+      </c>
+      <c r="G3465" s="0">
+        <v>946</v>
+      </c>
+      <c r="H3465" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3466">
+      <c r="A3466" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3466" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C3466" s="0">
+        <v>78830</v>
+      </c>
+      <c r="D3466" s="0">
+        <v>0.101625256383647</v>
+      </c>
+      <c r="E3466" s="0">
+        <v>79</v>
+      </c>
+      <c r="F3466" s="0">
+        <v>0.114658925979681</v>
+      </c>
+      <c r="G3466" s="0">
+        <v>2079</v>
+      </c>
+      <c r="H3466" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3467">
+      <c r="A3467" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3467" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C3467" s="0">
+        <v>46672</v>
+      </c>
+      <c r="D3467" s="0">
+        <v>6.01681335270526E-02</v>
+      </c>
+      <c r="E3467" s="0">
+        <v>36</v>
+      </c>
+      <c r="F3467" s="0">
+        <v>5.22496371552975E-02</v>
+      </c>
+      <c r="G3467" s="0">
+        <v>3509</v>
+      </c>
+      <c r="H3467" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3468">
+      <c r="A3468" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3468" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C3468" s="0">
+        <v>24298</v>
+      </c>
+      <c r="D3468" s="0">
+        <v>3.13242481239356E-02</v>
+      </c>
+      <c r="E3468" s="0">
+        <v>2</v>
+      </c>
+      <c r="F3468" s="0">
+        <v>2.90275761973875E-03</v>
+      </c>
+      <c r="G3468" s="0">
+        <v>4362</v>
+      </c>
+      <c r="H3468" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3469">
+      <c r="A3469" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B3469" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C3469" s="0">
+        <v>1048</v>
+      </c>
+      <c r="D3469" s="0">
+        <v>1.35104996435445E-03</v>
+      </c>
+      <c r="E3469" s="0">
+        <v>-14</v>
+      </c>
+      <c r="F3469" s="0">
+        <v>-2.03193033381713E-02</v>
+      </c>
+      <c r="G3469" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3469" s="0">
         <v>0</v>
       </c>
     </row>
@@ -96372,11 +96652,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3183</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3194</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3183</Url>
-      <Description>HJYU5V3E37X6-122305290-3183</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3194</Url>
+      <Description>HJYU5V3E37X6-122305290-3194</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -96399,17 +96679,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{580163C2-109F-49B6-9F1C-711677BB7B51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8F00EB0-1E6B-4EB9-BAAF-E3705A7C3119}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68667499-0395-459D-934F-18EFF00E6028}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622682F-E63B-47E1-A1A6-D0337E049D9F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5298B7-5BA4-46D5-9750-6D83F312FE83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F87F15-F4B0-4BDF-B74C-79CF823CC012}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0DC302-F307-4D38-A9E0-8B8C771E451C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6326A964-97DC-4BBF-A295-27728CF7EFD5}"/>
 </file>